--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163358.8689746538</v>
+        <v>-137391.3195456537</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17297070.25717503</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8800748.001667202</v>
+        <v>8839351.225562066</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>352.7854980578152</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>325.5800738246912</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>139.3802584240283</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>163.293878347428</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>30.15774997692665</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>243.8398845373353</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.44211996154365</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>247.8853163645411</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>184.7165097324547</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561542</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>48.20430172416666</v>
       </c>
     </row>
     <row r="12">
@@ -1537,10 +1537,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>35.34780583513604</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112173</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791325512</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800112</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>67.37282263167582</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1592746401473</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.588755294884</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791322127</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>129.7139627068459</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800137</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2248,7 +2248,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513566</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>27.07950026194645</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486906662</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>129.71396270683</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2570,7 +2570,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112152</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998631</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225813</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.5835062384832</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3079795468354</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.0976184357244</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>428.9839288517123</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1356867533088</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9307845213933</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.7857844696404</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.36228653642587</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4134863141163</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.1770111145778</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5377120239363</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3538315015015</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.4979702449069</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7501939217676</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4473639902217</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.3830258600318</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.766144328917</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6073551701946</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4869149562858</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.4822936828551</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.32028119149592</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.1958864734078</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T40" t="n">
-        <v>242.9675834157538</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.1956021978502</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6328845066984</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>51.38292383504074</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.4847685783461</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.6924054374573</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.5835062384832</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3079795468354</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.0976184357244</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>428.9839288517122</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1356867533088</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9307845213932</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.7857844696404</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.36228653642583</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4134863141162</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.1770111145777</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5377120239362</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3538315015015</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.4979702449069</v>
+        <v>414.9510387864831</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7501939217676</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4473639902217</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.3830258600318</v>
+        <v>31.24391673888174</v>
       </c>
       <c r="D43" t="n">
-        <v>163.766144328917</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6073551701946</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.4869149562858</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.4822936828551</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.0460196719494</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>242.9675834157538</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.1956021978502</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6328845066983</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8530718279958</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.4847685783461</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.6924054374573</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.5835062384832</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3079795468354</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.0976184357244</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>428.9839288517122</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1356867533088</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9307845213932</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>285.7857844696404</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.36228653642583</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4134863141162</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.1770111145777</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5377120239362</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3538315015015</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.4979702449069</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7501939217676</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4473639902217</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.3830258600318</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.766144328917</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6073551701946</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.4869149562858</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4822936828551</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0500840249537</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.32028119149588</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>242.9675834157538</v>
+        <v>173.7040795765142</v>
       </c>
       <c r="U46" t="n">
-        <v>275.1956021978502</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>85.30853896219796</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.8530718279958</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.4847685783461</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.6924054374573</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1989.748901726073</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230546</v>
+        <v>1633.399913788886</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0372869678147</v>
+        <v>1197.490128963331</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>763.7153841216259</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>335.8479545308336</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.8479545308336</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404984</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404984</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269677</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1060.105262105835</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1588.603159270568</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1588.603159270568</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1588.603159270568</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>2166.735933949435</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>2166.735933949435</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949435</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702492</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2252.238124886329</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2032.170897759368</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2032.170897759368</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2032.170897759368</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2031.355847210805</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>2016.25378783052</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>2012.008068170577</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653427</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.4330838019849</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.3427949485382</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>257.2223802754919</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>173.8385418916535</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.45345215783738</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404984</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450744</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.3397981007197</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>975.4725727795865</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452859</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901242</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231812</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.546661027005</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.6792252658851</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451058</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>617.5782525214162</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>617.5782525214162</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>617.5782525214162</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>617.5782525214162</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>440.8711984831723</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>275.279923509</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>135.3777491993745</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404984</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404984</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>248.76130339985</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>666.9711851678111</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1126.455052348724</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1568.713855506369</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1988.38310473215</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2335.889998702492</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702492</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407864</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407864</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2068.592730986319</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1790.159730239424</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1503.204222109855</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.240118618369</v>
+        <v>1231.177817696146</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>985.7860630295588</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>758.366392343667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>523.4148197788528</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2234.742998128394</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1024.341879988165</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1024.341879988165</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1024.341879988165</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1024.341879988165</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>1024.341879988165</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1477.116202953456</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1072.260748364489</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>653.1182849437999</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>244.8321612434534</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1818.712473117416</v>
+        <v>2506.383803920271</v>
       </c>
       <c r="C11" t="n">
-        <v>1818.712473117416</v>
+        <v>2068.241331103694</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.13014005433</v>
+        <v>1632.331546278139</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.355395212625</v>
+        <v>1198.556801436434</v>
       </c>
       <c r="F11" t="n">
-        <v>770.4879656218327</v>
+        <v>770.6893718456419</v>
       </c>
       <c r="G11" t="n">
-        <v>369.0901342450966</v>
+        <v>369.2915404689057</v>
       </c>
       <c r="H11" t="n">
-        <v>79.95997968831281</v>
+        <v>80.16138591212197</v>
       </c>
       <c r="I11" t="n">
-        <v>79.95997968831281</v>
+        <v>80.16138591212197</v>
       </c>
       <c r="J11" t="n">
-        <v>515.2146671412306</v>
+        <v>80.16138591212197</v>
       </c>
       <c r="K11" t="n">
-        <v>515.2146671412306</v>
+        <v>914.5116778703</v>
       </c>
       <c r="L11" t="n">
-        <v>1504.719415784102</v>
+        <v>1906.508828532809</v>
       </c>
       <c r="M11" t="n">
-        <v>1504.719415784102</v>
+        <v>1906.508828532809</v>
       </c>
       <c r="N11" t="n">
-        <v>1504.719415784102</v>
+        <v>1906.508828532809</v>
       </c>
       <c r="O11" t="n">
-        <v>2484.899082354408</v>
+        <v>2886.688495103116</v>
       </c>
       <c r="P11" t="n">
-        <v>3313.208957187805</v>
+        <v>3714.998369936512</v>
       </c>
       <c r="Q11" t="n">
-        <v>3859.707743146399</v>
+        <v>3838.915230853042</v>
       </c>
       <c r="R11" t="n">
-        <v>3997.998984415641</v>
+        <v>4008.069295606098</v>
       </c>
       <c r="S11" t="n">
-        <v>3914.347110599478</v>
+        <v>4008.069295606098</v>
       </c>
       <c r="T11" t="n">
-        <v>3694.279883472516</v>
+        <v>4008.069295606098</v>
       </c>
       <c r="U11" t="n">
-        <v>3435.057580789533</v>
+        <v>3748.846992923114</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.440630723359</v>
+        <v>3386.230042856941</v>
       </c>
       <c r="W11" t="n">
-        <v>3072.440630723359</v>
+        <v>2981.374588267974</v>
       </c>
       <c r="X11" t="n">
-        <v>2653.29816730267</v>
+        <v>2981.374588267974</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.012043602324</v>
+        <v>2932.683374405179</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.1317246796056</v>
+        <v>586.3331309034147</v>
       </c>
       <c r="C12" t="n">
-        <v>479.6752635162479</v>
+        <v>479.876669740057</v>
       </c>
       <c r="D12" t="n">
-        <v>384.5849746628011</v>
+        <v>384.7863808866103</v>
       </c>
       <c r="E12" t="n">
-        <v>290.4645599897548</v>
+        <v>290.665966213564</v>
       </c>
       <c r="F12" t="n">
-        <v>207.0807216059164</v>
+        <v>207.2821278297256</v>
       </c>
       <c r="G12" t="n">
-        <v>121.6956318721003</v>
+        <v>121.8970380959095</v>
       </c>
       <c r="H12" t="n">
-        <v>79.95997968831281</v>
+        <v>80.16138591212197</v>
       </c>
       <c r="I12" t="n">
-        <v>106.0236528487704</v>
+        <v>106.2250590725796</v>
       </c>
       <c r="J12" t="n">
-        <v>430.5819778149827</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.288024440706</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.288024440706</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.288024440706</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.288024440706</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.288024440706</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.288024440706</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.026963072782</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.199741167122</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.744303615505</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.565659946106</v>
+        <v>1549.767066169916</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.229112946075</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.111595008074</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>988.7888407412679</v>
+        <v>988.9902469650772</v>
       </c>
       <c r="X12" t="n">
-        <v>833.9214049801479</v>
+        <v>834.1228112039571</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.4356257593687</v>
+        <v>707.6370319831778</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.4538171059253</v>
+        <v>789.6552233297338</v>
       </c>
       <c r="C13" t="n">
-        <v>616.8921055891502</v>
+        <v>617.0935118129587</v>
       </c>
       <c r="D13" t="n">
-        <v>451.0141127906729</v>
+        <v>451.2155190144814</v>
       </c>
       <c r="E13" t="n">
-        <v>281.2561090414102</v>
+        <v>281.4575152652187</v>
       </c>
       <c r="F13" t="n">
-        <v>245.5512546624851</v>
+        <v>104.7504612269749</v>
       </c>
       <c r="G13" t="n">
-        <v>79.95997968831281</v>
+        <v>80.16138591212197</v>
       </c>
       <c r="H13" t="n">
-        <v>79.95997968831281</v>
+        <v>80.16138591212197</v>
       </c>
       <c r="I13" t="n">
-        <v>79.95997968831281</v>
+        <v>80.16138591212197</v>
       </c>
       <c r="J13" t="n">
-        <v>166.5396648530026</v>
+        <v>166.7410710768118</v>
       </c>
       <c r="K13" t="n">
-        <v>441.2981194241382</v>
+        <v>441.4995256479474</v>
       </c>
       <c r="L13" t="n">
-        <v>859.5080011920993</v>
+        <v>859.7094074159086</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.991868373012</v>
+        <v>1319.193274596822</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.250671530657</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2180.919920756438</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.42681472678</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.378220889109</v>
+        <v>2537.579627112917</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.498774467565</v>
+        <v>2291.700180691373</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.06577372067</v>
+        <v>2013.267179944478</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.1102655911</v>
+        <v>1726.311671814909</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.083861177392</v>
+        <v>1454.2852674012</v>
       </c>
       <c r="X13" t="n">
-        <v>1208.692106510804</v>
+        <v>1208.893512734613</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.2724358249125</v>
+        <v>981.4738420487208</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,19 +5285,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1083.781082102101</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>911.2193705853255</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>745.3413777868482</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>575.5833740375854</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>398.8763199993417</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821088</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,13 +5501,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436406</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5525,13 +5525,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324585</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258803</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876365</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134642</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,13 +5759,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C22" t="n">
-        <v>868.8551150562604</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>473.3149733731396</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>303.5569696238769</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y22" t="n">
-        <v>1233.235445292023</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6145,52 +6145,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354648</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066004</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745614</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173563</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.67908147156</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050015</v>
+        <v>2313.799635050026</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.36663430312</v>
+        <v>2035.366634303131</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173551</v>
+        <v>1748.411126173562</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759853</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093266</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407374</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856327</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130894</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.598126712563</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2087.913298887476</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.461159053411</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.144059203197</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.7342746038953</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>390.79408821865</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1215786533566</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3762661062744</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2581.936540552477</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.116207122784</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4390.42608195618</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4936.924867914775</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.078932667831</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5022.884703843159</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.275121707688</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.510464016194</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.351158941511</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.953349344035</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.268530914836</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.44005220598</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.2933236446494</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8368624812917</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.746573627845</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6261589547987</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2423205709603</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8572308371442</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1852518138142</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.7435767800266</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.361340132165</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.905902580548</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.390711911118</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0830039451918</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.5972247244125</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1038.53169500667</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>866.4276284813855</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>701.0072806743985</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E40" t="n">
-        <v>531.7069219166262</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>355.4575128698729</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G40" t="n">
-        <v>190.3238828871909</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3238828871909</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1498016742062</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.3567941015015</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>883.0152137256223</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.947618762695</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.654959776499</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.77274685844</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.728178684942</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.369491405434</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.369491405434</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.585767694921</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2318.163966264867</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2040.188610509462</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.690747371383</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1701.788804103665</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1456.854694428568</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1229.892668734167</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.598126712563</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2087.913298887477</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.461159053412</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.144059203198</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.7342746038967</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1215786533566</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3762661062744</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.936540552477</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.116207122784</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4390.42608195618</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4936.924867914775</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.078932667831</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5022.88470384316</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.275121707688</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.510464016195</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.351158941512</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.953349344036</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.268530914837</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.440052205981</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.2933236446494</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8368624812917</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.746573627845</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6261589547987</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2423205709603</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8572308371442</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1852518138142</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.7435767800266</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.44962340575</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.361340132165</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.905902580548</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.390711911118</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0830039451918</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.5972247244125</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.3293907728357</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C43" t="n">
-        <v>778.2253242475506</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>612.8049764405637</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5046176827919</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>267.2552086360386</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1498016742063</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.3567941015016</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.0152137256225</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.947618762695</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.6549597765</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.772746858441</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.728178684943</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.369491405435</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.369491405435</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.050279615587</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2449.628478185532</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.653122430128</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.155259292049</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.586499869831</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.652390194734</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.690364500332</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.598126712563</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2087.913298887476</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.461159053411</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.144059203197</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.7342746038955</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7940882186499</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1215786533566</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3762661062744</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.786524317312</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.786524317312</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.936540552476</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.116207122783</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4390.426081956179</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4936.924867914774</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.07893266783</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5022.884703843158</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.275121707688</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.510464016194</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.351158941511</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.953349344035</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.268530914836</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.44005220598</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.2933236446494</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8368624812917</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.746573627845</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6261589547987</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2423205709603</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8572308371441</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1852518138142</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.7435767800265</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.361340132165</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.905902580548</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.390711911118</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0830039451918</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.5972247244125</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1177.976224324805</v>
+        <v>1041.416826573036</v>
       </c>
       <c r="C46" t="n">
-        <v>1005.87215779952</v>
+        <v>868.855115056261</v>
       </c>
       <c r="D46" t="n">
-        <v>840.4518099925335</v>
+        <v>702.9771222577835</v>
       </c>
       <c r="E46" t="n">
-        <v>671.1514512347612</v>
+        <v>533.2191185085206</v>
       </c>
       <c r="F46" t="n">
-        <v>494.9020421880078</v>
+        <v>356.5120644702768</v>
       </c>
       <c r="G46" t="n">
-        <v>329.7684122053259</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>190.3238828871908</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1215786533566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1498016742063</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>464.3567941015017</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L46" t="n">
-        <v>883.0152137256225</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.947618762695</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.6549597765</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.772746858441</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.728178684943</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.369491405434</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.369491405434</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2722.369491405434</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2476.94768997538</v>
+        <v>2543.461783934676</v>
       </c>
       <c r="U46" t="n">
-        <v>2198.972334219976</v>
+        <v>2265.028783187781</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.802092844018</v>
+        <v>1978.073275058211</v>
       </c>
       <c r="W46" t="n">
-        <v>1841.2333334218</v>
+        <v>1706.046870644503</v>
       </c>
       <c r="X46" t="n">
-        <v>1596.299223746703</v>
+        <v>1460.655115977915</v>
       </c>
       <c r="Y46" t="n">
-        <v>1369.337198052302</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.972499675623</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>533.8362597623573</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>583.9724996756231</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756229</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>77.34673934025955</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>204.0843468947477</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>999.4997461039102</v>
+        <v>1002.017323901525</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>125.1685463803328</v>
       </c>
       <c r="R11" t="n">
-        <v>139.6881224941831</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>866.2895820207518</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,16 +9173,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>395.0015281256938</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>136.5151679143087</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143087</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>136.5151679143078</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,19 +11376,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>246.8341772448452</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>355.9989607391764</v>
       </c>
     </row>
     <row r="12">
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.153637185780099e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>96.56253959275479</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>3.146865729424064</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.151257446797899e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307235</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>248.5691704774792</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>139.5921776627306</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>139.5921776627414</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.14686572942388</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T34" t="n">
-        <v>208.219724947343</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0500840249537</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.75057454010634</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>217.4701479929552</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0500840249537</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.32028119149588</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.7505745401063</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1498668014584</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.7505745401063</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.1958864734078</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>69.71657238081505</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>198.3243455445003</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>747188.0784268982</v>
+        <v>757013.3209267561</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>747188.0784268982</v>
+        <v>762153.880896099</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>747188.0784268982</v>
+        <v>762153.880896099</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651441.4038888222</v>
+        <v>652590.8935366384</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778719.5380602522</v>
+        <v>778719.5380602521</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778719.5380602522</v>
+        <v>778719.5380602521</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778719.5380602515</v>
+        <v>778719.538060252</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778980.7268886587</v>
+        <v>778719.5380602521</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778980.7268886587</v>
+        <v>778719.5380602521</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778980.7268886587</v>
+        <v>778719.5380602521</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26320,19 @@
         <v>227862.6109534236</v>
       </c>
       <c r="E2" t="n">
-        <v>187316.6803722543</v>
+        <v>187647.2067767259</v>
       </c>
       <c r="F2" t="n">
-        <v>223914.4732583749</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="G2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="H2" t="n">
+        <v>223914.4732583748</v>
+      </c>
+      <c r="I2" t="n">
         <v>223914.4732583747</v>
-      </c>
-      <c r="I2" t="n">
-        <v>223914.4732583746</v>
       </c>
       <c r="J2" t="n">
         <v>223914.4732583748</v>
@@ -26347,13 +26347,13 @@
         <v>223914.4732583748</v>
       </c>
       <c r="N2" t="n">
-        <v>224024.6487265319</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="O2" t="n">
-        <v>224024.6487265318</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="P2" t="n">
-        <v>224024.6487265318</v>
+        <v>223914.4732583747</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087938</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889378</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171743.2266455756</v>
+        <v>99874.97317730868</v>
       </c>
       <c r="F3" t="n">
-        <v>79872.20474064858</v>
+        <v>79150.8532446093</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>152792.9007051287</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773519</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143343.1098506387</v>
+        <v>83359.26563805116</v>
       </c>
       <c r="N3" t="n">
-        <v>68212.12920465147</v>
+        <v>67659.4132212868</v>
       </c>
       <c r="O3" t="n">
-        <v>3.459454944731988e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>179242.2862846093</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68128.64732025311</v>
+        <v>68248.86254505592</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="H4" t="n">
+        <v>81439.57146904277</v>
+      </c>
+      <c r="I4" t="n">
+        <v>81439.57146904277</v>
+      </c>
+      <c r="J4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81439.57146904284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>81439.57146904286</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
@@ -26448,16 +26448,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81812.45792271062</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>81812.45792271064</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="P4" t="n">
-        <v>81812.45792271063</v>
+        <v>81439.5714690428</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027787</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60769.58456311774</v>
+        <v>60922.65329321269</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26491,7 +26491,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77650.48879577273</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77650.48879577275</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77650.48879577273</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179714.4506853754</v>
+        <v>-216215.4193202573</v>
       </c>
       <c r="C6" t="n">
-        <v>-37523.15002566546</v>
+        <v>-38603.20150678624</v>
       </c>
       <c r="D6" t="n">
-        <v>-37523.1500256655</v>
+        <v>-11613.0018678925</v>
       </c>
       <c r="E6" t="n">
-        <v>-113324.778156692</v>
+        <v>-41635.84343989081</v>
       </c>
       <c r="F6" t="n">
-        <v>-15115.54155710907</v>
+        <v>-14417.41440045246</v>
       </c>
       <c r="G6" t="n">
-        <v>64756.66318353941</v>
+        <v>64733.43884415682</v>
       </c>
       <c r="H6" t="n">
-        <v>64756.66318353938</v>
+        <v>64733.43884415685</v>
       </c>
       <c r="I6" t="n">
-        <v>64756.66318353929</v>
+        <v>64733.43884415679</v>
       </c>
       <c r="J6" t="n">
-        <v>-46257.80216145072</v>
+        <v>-88059.4618609719</v>
       </c>
       <c r="K6" t="n">
-        <v>64756.66318353944</v>
+        <v>43232.21944642159</v>
       </c>
       <c r="L6" t="n">
-        <v>64756.66318353941</v>
+        <v>64733.43884415679</v>
       </c>
       <c r="M6" t="n">
-        <v>-78586.44666709934</v>
+        <v>-18625.82679389435</v>
       </c>
       <c r="N6" t="n">
-        <v>-3650.427196602948</v>
+        <v>-2925.974377129989</v>
       </c>
       <c r="O6" t="n">
-        <v>64561.70200804839</v>
+        <v>64733.43884415676</v>
       </c>
       <c r="P6" t="n">
-        <v>64561.70200804845</v>
+        <v>64733.43884415676</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.972499675623</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>999.4997461039102</v>
+        <v>1002.017323901525</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.519733166958</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.519733166958</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.519733166958</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.324318680914985e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.972499675623</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223395</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.2038885838058</v>
+        <v>334.5021172936677</v>
       </c>
       <c r="F4" t="n">
-        <v>278.7607572808352</v>
+        <v>276.2431794832207</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>583.972499675623</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223395</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838058</v>
+        <v>334.5021172936677</v>
       </c>
       <c r="N4" t="n">
-        <v>277.0199870630477</v>
+        <v>276.2431794832207</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.972499675623</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223395</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838058</v>
+        <v>334.5021172936677</v>
       </c>
       <c r="N4" t="n">
-        <v>278.7607572808352</v>
+        <v>276.2431794832207</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>80.97555003059574</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.8569235685966</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,7 +27439,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>50.5201741077689</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>106.0122620221433</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>187.7088048787651</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>31.8087862020904</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331.594454818515</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>185.8757317238698</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.435012109141098e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.678863346034872e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151079231931362e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-9.410791872183696e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-2.482240355102077e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4530685415754955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4530685415755387</v>
+        <v>-7.230850401199483e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4530685415755387</v>
+        <v>-6.002665031701327e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4530685415755387</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.972499675623</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>533.8362597623573</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>583.9724996756231</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,13 +34778,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756229</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>77.34673934025955</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>204.0843468947477</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>999.4997461039102</v>
+        <v>1002.017323901525</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>125.1685463803328</v>
       </c>
       <c r="R11" t="n">
-        <v>139.6881224941831</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>866.2895820207518</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35893,16 +35893,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>395.0015281256938</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907592</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36850,10 +36850,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>136.5151679143087</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.90729598065616</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.986861037672</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.887292549617</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5781869061341</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.179132337176</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.36140109287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143087</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.90729598065619</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9868610376721</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8872925496171</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5781869061341</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1791323371763</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.36140109287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4701331580827</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3447603237296</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>136.5151679143078</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.90729598065627</v>
+        <v>87.45422743908061</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9868610376721</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
-        <v>422.887292549617</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5781869061341</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1791323371763</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.36140109287</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
